--- a/out/production/HybridFrameWork/testing/reports/TestResult_TestSuite1.xlsx
+++ b/out/production/HybridFrameWork/testing/reports/TestResult_TestSuite1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="2" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="TestCase6" sheetId="8" r:id="rId7"/>
     <sheet name="TestCase7" sheetId="9" r:id="rId8"/>
     <sheet name="TestCase8" sheetId="10" r:id="rId9"/>
+    <sheet name="TestCase9" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestSuite!$G$21:$G$22</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="155">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -192,9 +193,6 @@
     <t>Test case will be not executed</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>TestCase5</t>
   </si>
   <si>
@@ -472,6 +470,33 @@
   </si>
   <si>
     <t>RDB_FEMALE</t>
+  </si>
+  <si>
+    <t>http://www.javascripttoolbox.com/lib/mktree/</t>
+  </si>
+  <si>
+    <t>TS_010</t>
+  </si>
+  <si>
+    <t>clickTreeViewItem</t>
+  </si>
+  <si>
+    <t>TREE_DEFAULT</t>
+  </si>
+  <si>
+    <t>config.txt</t>
+  </si>
+  <si>
+    <t>schedule.id</t>
+  </si>
+  <si>
+    <t>verifyTreeViewItemExist</t>
+  </si>
+  <si>
+    <t>verifyTreeViewItemNotExist</t>
+  </si>
+  <si>
+    <t>AAAAAAAAA</t>
   </si>
 </sst>
 </file>
@@ -1244,13 +1269,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3748,8 +3773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3781,7 +3806,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
@@ -3796,18 +3821,20 @@
         <v>33</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G2" s="11" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="12">
         <f>SUM(H3:H4)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>39</v>
@@ -3817,11 +3844,11 @@
         <v>0</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L2" s="26"/>
       <c r="M2" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N2" s="28"/>
     </row>
@@ -3830,18 +3857,20 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G3" s="11" t="s">
         <v>37</v>
       </c>
       <c r="H3" s="12">
         <f>COUNTIF(C2:C44,"Yes")</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>41</v>
@@ -3870,18 +3899,20 @@
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="12">
         <f>COUNTIF(C3:C45,"No")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>40</v>
@@ -3898,7 +3929,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N4" s="21">
         <f>1-N3</f>
@@ -3910,52 +3941,60 @@
         <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>52</v>
@@ -3964,29 +4003,31 @@
         <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4003,6 +4044,199 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="49.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6">
+      <formula1>$I$2:$I$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4058,14 +4292,16 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4076,16 +4312,18 @@
         <v>5</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4105,7 +4343,9 @@
         <v>13</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -4115,14 +4355,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4132,63 +4374,69 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
@@ -4198,7 +4446,9 @@
         <v>12</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4263,12 +4513,14 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4288,9 +4540,11 @@
       <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4307,12 +4561,14 @@
         <v>49</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -4328,12 +4584,14 @@
         <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4343,94 +4601,104 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4498,14 +4766,16 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4527,9 +4797,11 @@
       <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4546,12 +4818,14 @@
         <v>47</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -4562,13 +4836,15 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4581,24 +4857,26 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -4611,11 +4889,11 @@
         <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
@@ -4628,12 +4906,12 @@
         <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4643,7 +4921,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4720,14 +4998,16 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4738,18 +5018,20 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4762,10 +5044,12 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -4775,16 +5059,18 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4794,74 +5080,82 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
@@ -4871,7 +5165,9 @@
         <v>12</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4930,7 +5226,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -4940,25 +5236,27 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -4967,61 +5265,67 @@
       <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
@@ -5031,16 +5335,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -5050,14 +5354,14 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
@@ -5067,10 +5371,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
@@ -5136,7 +5440,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -5146,25 +5450,27 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -5173,130 +5479,144 @@
       <c r="F3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5318,7 +5638,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E24"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5355,7 +5675,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -5365,97 +5685,107 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5463,7 +5793,9 @@
         <v>12</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5481,10 +5813,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5521,7 +5853,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -5531,173 +5863,190 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
         <v>95</v>
-      </c>
-      <c r="I3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="6" t="s">
-        <v>146</v>
+      <c r="D10" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
